--- a/data/trans_dic/P02E$contratada-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P02E$contratada-Provincia-trans_dic.xlsx
@@ -678,26 +678,26 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01082128993638856</v>
+        <v>0.010769513295013</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="n">
-        <v>0.03509658352835188</v>
+        <v>0.03407305329998407</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.009375627472442033</v>
+        <v>0.009422578170900097</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03666935738516015</v>
+        <v>0.03356354654611629</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.005895491376999558</v>
+        <v>0.005909657202187659</v>
       </c>
     </row>
     <row r="6">
@@ -708,29 +708,29 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08277466421874391</v>
+        <v>0.08433983287459454</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1086977491632032</v>
+        <v>0.0991155938893899</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0847725301988117</v>
+        <v>0.06483686996044534</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>0.1391575131725808</v>
+        <v>0.1467033377011394</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07777218916349406</v>
+        <v>0.08918159163166234</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03537501212886619</v>
+        <v>0.03212710406154626</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1074676275818523</v>
+        <v>0.1064341928910722</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05237696642579309</v>
+        <v>0.05458772032672284</v>
       </c>
     </row>
     <row r="7">
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01168020362599152</v>
+        <v>0.008687943517589695</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
@@ -796,13 +796,13 @@
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.004840369300296609</v>
+        <v>0.005722108051632513</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.002744400093904427</v>
+        <v>0.00272966667092563</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.005115348530241905</v>
+        <v>0.005119088240687895</v>
       </c>
     </row>
     <row r="9">
@@ -814,28 +814,28 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.03729424879508066</v>
+        <v>0.03649419379054082</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08293611969949394</v>
+        <v>0.09128564855827578</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.08574414540832714</v>
+        <v>0.09196583702646656</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0358636522110614</v>
+        <v>0.03550166772877735</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05892401262701884</v>
+        <v>0.05397678737898011</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05603576663656876</v>
+        <v>0.05864200958182508</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02383525053347627</v>
+        <v>0.02472298534892316</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05183289038406903</v>
+        <v>0.0532890203288091</v>
       </c>
     </row>
     <row r="10">
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.006539115025014581</v>
+        <v>0.006331633700324746</v>
       </c>
     </row>
     <row r="12">
@@ -918,25 +918,25 @@
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.0835814547750635</v>
+        <v>0.06777676282646722</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06195954656772421</v>
+        <v>0.0709731511748936</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05984413587599489</v>
+        <v>0.0597434517849002</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.08032423534390215</v>
+        <v>0.08358369193756876</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04681071968450284</v>
+        <v>0.0450981047789188</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03474387200132607</v>
+        <v>0.0400692316574147</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05774638186123551</v>
+        <v>0.05437594352491826</v>
       </c>
     </row>
     <row r="13">
@@ -992,19 +992,19 @@
       <c r="E14" s="5" t="inlineStr"/>
       <c r="F14" s="5" t="inlineStr"/>
       <c r="G14" s="5" t="n">
-        <v>0.01008823721601381</v>
+        <v>0.0102917349861881</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.007344653878515495</v>
+        <v>0.007379861101451985</v>
       </c>
       <c r="I14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.006154024343562103</v>
+        <v>0.006230998648558482</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.004919653779470231</v>
+        <v>0.004950119862261601</v>
       </c>
     </row>
     <row r="15">
@@ -1015,25 +1015,25 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05062420702329089</v>
+        <v>0.06950958517869722</v>
       </c>
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="inlineStr"/>
       <c r="G15" s="5" t="n">
-        <v>0.06039563357157311</v>
+        <v>0.05854400884684786</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06097707141616122</v>
+        <v>0.06661745709943991</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02588178792235983</v>
+        <v>0.02724549155194174</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03631549206279187</v>
+        <v>0.04095925392379519</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04418479819521147</v>
+        <v>0.04512662507636585</v>
       </c>
     </row>
     <row r="16">
@@ -1083,13 +1083,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02745270524029138</v>
+        <v>0.02725635291140241</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0140464408347107</v>
+        <v>0.02186736563133246</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0</v>
@@ -1097,13 +1097,13 @@
       <c r="G17" s="5" t="inlineStr"/>
       <c r="H17" s="5" t="inlineStr"/>
       <c r="I17" s="5" t="n">
-        <v>0.02538887047068834</v>
+        <v>0.02468880578323741</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01035697309191713</v>
+        <v>0.006504302261416277</v>
       </c>
     </row>
     <row r="18">
@@ -1114,27 +1114,27 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2844796374270191</v>
+        <v>0.301861542298051</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.185500744219742</v>
+        <v>0.2028046046228275</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1509965241726646</v>
+        <v>0.1512434856389243</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1367112601210232</v>
+        <v>0.1517950802984174</v>
       </c>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="inlineStr"/>
       <c r="I18" s="5" t="n">
-        <v>0.1497435709693655</v>
+        <v>0.1569669125840918</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0683337574931433</v>
+        <v>0.07373308014483509</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.07381101172149021</v>
+        <v>0.07429863532527337</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01221362752619377</v>
+        <v>0.01291998237612527</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.008905498868870045</v>
+        <v>0.007311255150787163</v>
       </c>
     </row>
     <row r="21">
@@ -1216,26 +1216,26 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.07509669794502054</v>
+        <v>0.08549135967550649</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1195204668166925</v>
+        <v>0.1482773316045699</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1015067124437779</v>
+        <v>0.1148935084531318</v>
       </c>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="n">
-        <v>0.08273749025618755</v>
+        <v>0.09178005152576724</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.05363438400786874</v>
+        <v>0.06213216068662796</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.03142806843088213</v>
+        <v>0.03222106729701552</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.08038179143170812</v>
+        <v>0.07729354995173138</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.004944286106228738</v>
+        <v>0.004912588637408694</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>0</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.007429008974107511</v>
+        <v>0.007892685393480293</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.004764426318564092</v>
+        <v>0.004720476146794968</v>
       </c>
       <c r="I23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01056630570253298</v>
+        <v>0.01051461924099108</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.006303356654470529</v>
+        <v>0.006235650053087528</v>
       </c>
     </row>
     <row r="24">
@@ -1320,31 +1320,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03728696201135844</v>
+        <v>0.04412361125115861</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05650659587193655</v>
+        <v>0.06229083926202317</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.06234441157352474</v>
+        <v>0.06306597894101443</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.02603595636630972</v>
+        <v>0.02250691956980016</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.0443483058515569</v>
+        <v>0.0424979388832722</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.04318795570884759</v>
+        <v>0.04101333029948038</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.01756945374454385</v>
+        <v>0.01787648094089393</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.04098081032136931</v>
+        <v>0.03993750467982781</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.03800282054337981</v>
+        <v>0.03593565576774729</v>
       </c>
     </row>
     <row r="25">
@@ -1394,31 +1394,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.007620530489896599</v>
+        <v>0.007517306060001109</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.005012611655528102</v>
+        <v>0.004853209517405497</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.005886407009755122</v>
+        <v>0.005904123878591033</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.01135254156602396</v>
+        <v>0.01186002517393821</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.01226977301437599</v>
+        <v>0.0117149642273382</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.001838323437326425</v>
+        <v>0.001858100899700712</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.01161096521881208</v>
+        <v>0.01087980388016824</v>
       </c>
     </row>
     <row r="27">
@@ -1429,31 +1429,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.09153630683574403</v>
+        <v>0.08183503244947887</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.0316129662985766</v>
+        <v>0.03230218586589263</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.04371910715046464</v>
+        <v>0.04325191631031412</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.06336734136308361</v>
+        <v>0.06235503349065123</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.01941713183829237</v>
+        <v>0.02227998482748392</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.04994541559380498</v>
+        <v>0.05204792641678971</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.05485622016007002</v>
+        <v>0.05472655400196357</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.01787303351208039</v>
+        <v>0.01688963849035549</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.03851582083869385</v>
+        <v>0.039791431766123</v>
       </c>
     </row>
     <row r="28">
@@ -1503,31 +1503,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.008495247021382969</v>
+        <v>0.008612073867771745</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.00975808502566191</v>
+        <v>0.009856341343384256</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.01382992081206635</v>
+        <v>0.01423062128688245</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.01014406286268207</v>
+        <v>0.01022745839017606</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.01273817289822906</v>
+        <v>0.0124087449516218</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.01256062562535054</v>
+        <v>0.01292774132032781</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.011598361441671</v>
+        <v>0.01173832180378101</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.01295007627918228</v>
+        <v>0.01292480200772786</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.01535820840389223</v>
+        <v>0.01501167811580892</v>
       </c>
     </row>
     <row r="30">
@@ -1538,31 +1538,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.03340353868922658</v>
+        <v>0.03270489087822527</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.02697739162228813</v>
+        <v>0.02782786998637292</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.03678226731994452</v>
+        <v>0.03677431033770811</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.02867513657975724</v>
+        <v>0.02878387025312814</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.02918461469402468</v>
+        <v>0.02672692800416068</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.03150654271741368</v>
+        <v>0.03046447324392034</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.02620553226928697</v>
+        <v>0.0263228969908688</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.02399932860244533</v>
+        <v>0.0248431160519951</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.02978062872938546</v>
+        <v>0.02919271787552177</v>
       </c>
     </row>
     <row r="31">
@@ -1798,26 +1798,26 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="n">
-        <v>4947</v>
+        <v>4803</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>8430</v>
+        <v>7716</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1018</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="7">
@@ -1828,29 +1828,29 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>5360</v>
+        <v>5462</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9665</v>
+        <v>8813</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>6260</v>
+        <v>4788</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="n">
-        <v>19616</v>
+        <v>20680</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>7680</v>
+        <v>8806</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>5979</v>
+        <v>5430</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>24705</v>
+        <v>24467</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>9040</v>
+        <v>9421</v>
       </c>
     </row>
     <row r="8">
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1611</v>
+        <v>1199</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
@@ -1951,13 +1951,13 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1002</v>
+        <v>1184</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="11">
@@ -1969,28 +1969,28 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>4826</v>
+        <v>4723</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>6628</v>
+        <v>7296</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>11829</v>
+        <v>12687</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>7613</v>
+        <v>7536</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>7901</v>
+        <v>7238</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>11598</v>
+        <v>12138</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>8144</v>
+        <v>8447</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>11093</v>
+        <v>11404</v>
       </c>
     </row>
     <row r="12">
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>916</v>
+        <v>887</v>
       </c>
     </row>
     <row r="15">
@@ -2108,25 +2108,25 @@
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>5005</v>
+        <v>4058</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>6518</v>
+        <v>7466</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8365</v>
+        <v>8351</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>6447</v>
+        <v>6708</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>8183</v>
+        <v>7884</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>8104</v>
+        <v>9347</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>8092</v>
+        <v>7620</v>
       </c>
     </row>
     <row r="16">
@@ -2217,19 +2217,19 @@
       <c r="E18" s="6" t="inlineStr"/>
       <c r="F18" s="6" t="inlineStr"/>
       <c r="G18" s="6" t="n">
-        <v>1824</v>
+        <v>1861</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1797</v>
+        <v>1820</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>874</v>
+        <v>880</v>
       </c>
     </row>
     <row r="19">
@@ -2240,25 +2240,25 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>4330</v>
+        <v>5945</v>
       </c>
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="inlineStr"/>
       <c r="F19" s="6" t="inlineStr"/>
       <c r="G19" s="6" t="n">
-        <v>10923</v>
+        <v>10588</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>7227</v>
+        <v>7895</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>5235</v>
+        <v>5511</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>10606</v>
+        <v>11962</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>7853</v>
+        <v>8020</v>
       </c>
     </row>
     <row r="20">
@@ -2343,13 +2343,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1017</v>
+        <v>1584</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>0</v>
@@ -2357,13 +2357,13 @@
       <c r="G22" s="6" t="inlineStr"/>
       <c r="H22" s="6" t="inlineStr"/>
       <c r="I22" s="6" t="n">
-        <v>2131</v>
+        <v>2073</v>
       </c>
       <c r="J22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1620</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="23">
@@ -2374,27 +2374,27 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>8816</v>
+        <v>9355</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>10190</v>
+        <v>11141</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>10937</v>
+        <v>10955</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>7240</v>
+        <v>8038</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="inlineStr"/>
       <c r="I23" s="6" t="n">
-        <v>12570</v>
+        <v>13177</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>10070</v>
+        <v>10866</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>11542</v>
+        <v>11618</v>
       </c>
     </row>
     <row r="24">
@@ -2483,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>767</v>
+        <v>811</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1182</v>
+        <v>970</v>
       </c>
     </row>
     <row r="27">
@@ -2511,26 +2511,26 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>6162</v>
+        <v>7015</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>7502</v>
+        <v>9306</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>7030</v>
+        <v>7958</v>
       </c>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="n">
-        <v>5787</v>
+        <v>6419</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>6907</v>
+        <v>8002</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>6041</v>
+        <v>6193</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>10667</v>
+        <v>10257</v>
       </c>
     </row>
     <row r="28">
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>0</v>
@@ -2627,19 +2627,19 @@
         <v>0</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>2107</v>
+        <v>2239</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="I30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>5266</v>
+        <v>5240</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>2056</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="31">
@@ -2650,31 +2650,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>4160</v>
+        <v>4922</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>12134</v>
+        <v>13376</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>7635</v>
+        <v>7724</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>5792</v>
+        <v>5007</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>12580</v>
+        <v>12055</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>8800</v>
+        <v>8357</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>5868</v>
+        <v>5971</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>20424</v>
+        <v>19904</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>12397</v>
+        <v>11723</v>
       </c>
     </row>
     <row r="32">
@@ -2759,31 +2759,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="D34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1134</v>
+        <v>1098</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>3653</v>
+        <v>3816</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>4076</v>
+        <v>3891</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>1042</v>
+        <v>1053</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>6362</v>
+        <v>5961</v>
       </c>
     </row>
     <row r="35">
@@ -2794,31 +2794,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>12375</v>
+        <v>11064</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>6642</v>
+        <v>6786</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>9887</v>
+        <v>9781</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>12482</v>
+        <v>12283</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>6928</v>
+        <v>7949</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>16070</v>
+        <v>16746</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>18222</v>
+        <v>18179</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>10132</v>
+        <v>9574</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>21103</v>
+        <v>21801</v>
       </c>
     </row>
     <row r="36">
@@ -2903,31 +2903,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>5320</v>
+        <v>5393</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>9610</v>
+        <v>9707</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>10465</v>
+        <v>10768</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>10203</v>
+        <v>10287</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>19322</v>
+        <v>18823</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>13955</v>
+        <v>14363</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>18929</v>
+        <v>19157</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>32397</v>
+        <v>32334</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>28684</v>
+        <v>28037</v>
       </c>
     </row>
     <row r="39">
@@ -2938,31 +2938,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>20917</v>
+        <v>20480</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>26567</v>
+        <v>27405</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>27832</v>
+        <v>27826</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>28842</v>
+        <v>28951</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>44270</v>
+        <v>40542</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>35003</v>
+        <v>33846</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>42768</v>
+        <v>42959</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>60039</v>
+        <v>62150</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>55620</v>
+        <v>54522</v>
       </c>
     </row>
     <row r="40">
